--- a/src/main/doc/数据库表1.0.xlsx
+++ b/src/main/doc/数据库表1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7352BB7-33F0-4CEB-8FC7-1F8B2788A2B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546DB85-9195-4633-BEAD-702A4CA85A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="185">
   <si>
     <t>limits</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,38 @@
   </si>
   <si>
     <t>answercase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2297,191 +2329,231 @@
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
     </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>153</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>168</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E141" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B142" t="s">
         <v>153</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C142" t="s">
         <v>170</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E142" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>118</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C144" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C146" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14" t="s">
+      <c r="D146" s="14"/>
+      <c r="E146" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B147" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C147" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13" t="s">
+      <c r="D147" s="13"/>
+      <c r="E147" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>122</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C150" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="12" t="s">
+      <c r="B151" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
+      <c r="D151" s="4"/>
+      <c r="E151" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B152" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C152" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14" t="s">
+      <c r="D152" s="14"/>
+      <c r="E152" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B153" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C153" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13" t="s">
+      <c r="D153" s="13"/>
+      <c r="E153" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F153" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
